--- a/data/trans_bre/P1410-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1410-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.580218806296099</v>
+        <v>-4.531270246961441</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.0708852570578</v>
+        <v>-3.27192019424408</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.391669837259932</v>
+        <v>-0.3206631636410998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.598282927852853</v>
+        <v>-3.655217480504741</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4001443604068263</v>
+        <v>-0.4001545615828783</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2737183089881028</v>
+        <v>-0.2819165993691329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.05371631461107167</v>
+        <v>-0.04052834529510816</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2441165574735239</v>
+        <v>-0.2458267658946515</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2618117817861037</v>
+        <v>0.3384962556559923</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.652546409599983</v>
+        <v>1.770886070518295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.442545071785765</v>
+        <v>5.20376644471972</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.252650547735885</v>
+        <v>2.65958353808253</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03475970235947694</v>
+        <v>0.03444523406593547</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1972621757581225</v>
+        <v>0.2099020110654679</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8077276229816098</v>
+        <v>0.7849795041592517</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2101267512609094</v>
+        <v>0.2497919501559489</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.5573759531901441</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.747429247902223</v>
+        <v>-1.747429247902224</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3175080805484776</v>
@@ -749,7 +749,7 @@
         <v>-0.1937398042557495</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4568249935865086</v>
+        <v>-0.4568249935865087</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.531750914075217</v>
+        <v>-1.485394418373913</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.038040442723877</v>
+        <v>-1.099125497908976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.565613534515952</v>
+        <v>-1.707465323130638</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.70911496484847</v>
+        <v>-2.719710407754111</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6350618677150983</v>
+        <v>-0.6273234712503262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5150655247450954</v>
+        <v>-0.5251543561774156</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4542986170086238</v>
+        <v>-0.477305596506252</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6052188448695175</v>
+        <v>-0.6130034602017858</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2105083604950495</v>
+        <v>0.2766335010755797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5771428738964074</v>
+        <v>0.5672386930011928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5855461733043281</v>
+        <v>0.3921984723194398</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.7777010563031947</v>
+        <v>-0.8961177580014518</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1640222510394412</v>
+        <v>0.213701848783815</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4685866597358611</v>
+        <v>0.4573573452897417</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2839636683200402</v>
+        <v>0.1855610634183243</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2211289413117022</v>
+        <v>-0.2601460017793522</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.1441327170596678</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.009960145385196</v>
+        <v>-2.009960145385195</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.8276742533902275</v>
@@ -849,7 +849,7 @@
         <v>0.0826294419844672</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4573291710180435</v>
+        <v>-0.4573291710180434</v>
       </c>
     </row>
     <row r="11">
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.122281030455093</v>
+        <v>-4.060431081822553</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.036718028641871</v>
+        <v>-1.03216459284215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.446622216363186</v>
+        <v>-1.480157199062464</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.742827229296968</v>
+        <v>-3.696921574127284</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>-0.5701067677613931</v>
+        <v>-0.57122176018218</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6845724383135254</v>
+        <v>-0.6689070182511265</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.8941424899667936</v>
+        <v>-0.8202900554775164</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7326071384630533</v>
+        <v>0.7408294307726266</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.763752814741342</v>
+        <v>1.947896906163579</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4230286890897493</v>
+        <v>-0.2971221596220993</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1411831303898552</v>
+        <v>0.2073327826249944</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>2.287856492559502</v>
+        <v>2.158919582415873</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1256654784989512</v>
+        <v>-0.06392147344316636</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.791909451317128</v>
+        <v>-1.778475045236567</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6725319512627432</v>
+        <v>-0.578929275002362</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2911172353254999</v>
+        <v>-0.1914693916399969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.884013764642862</v>
+        <v>-1.945625364719171</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3458688064624474</v>
+        <v>-0.3526430993535544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1502438965790639</v>
+        <v>-0.1387707955078136</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07117591579585032</v>
+        <v>-0.04761896110727854</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3203802910910045</v>
+        <v>-0.3231154039862422</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1521888375909968</v>
+        <v>0.22390970156494</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.324407366594036</v>
+        <v>1.28741454778433</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.775703726321316</v>
+        <v>1.823960069223368</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.1721123764476606</v>
+        <v>-0.1864668745178842</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04014205474178545</v>
+        <v>0.05973475441316597</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3936165200707473</v>
+        <v>0.3849428540239434</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5355760712052119</v>
+        <v>0.5445628432517615</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.03482110929718432</v>
+        <v>-0.03650745436856946</v>
       </c>
     </row>
     <row r="16">
